--- a/布局/cat.xlsx
+++ b/布局/cat.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b3d5d60c6a8dede/K025C0053/Web/08/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b3d5d60c6a8dede/K025C0053/Web开发/Cat Website/布局/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_AD4D066CA252ABDACC10481C9916E3CC73EEDF54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795E39CE-3E32-4B73-A5FF-00DE0132A211}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="11_AD4D066CA252ABDACC10481C9916E3CC73EEDF54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{335429F1-9566-4EF6-B02E-30339717F680}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$136</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -481,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -506,6 +509,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -524,6 +539,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,9 +589,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,50 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,47 +1001,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S106" sqref="S106"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="60" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:15" ht="18.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="2:15" ht="17" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -1056,184 +1056,184 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="e" vm="1">
+      <c r="B5" s="32" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="G5" s="36" t="e" vm="2">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="G5" s="22" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="L5" s="36" t="e" vm="3">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="L5" s="22" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="37"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="G13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="L13" s="13" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="L13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
@@ -1252,170 +1252,170 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="35" t="e" vm="4">
+      <c r="B19" s="24" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="G19" s="36" t="e" vm="5">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="G19" s="22" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="L19" s="36" t="e" vm="6">
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="L19" s="22" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="23"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="37"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="23"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="37"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="23"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="G26" s="13" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="G26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="L26" s="13" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="L26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="18"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="18"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
@@ -1434,170 +1434,170 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="35" t="e" vm="7">
+      <c r="B32" s="24" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="G32" s="36" t="e" vm="8">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="G32" s="22" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="L32" s="36" t="e" vm="9">
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="L32" s="22" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="37"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="23"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="37"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="23"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="37"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="23"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="37"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="37"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="23"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="37"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="37"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="23"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="G39" s="13" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="G39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="L39" s="13" t="s">
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="L39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="14"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="18"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="18"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="18"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="18"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
@@ -1613,121 +1613,121 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="35" t="e" vm="10">
+      <c r="B45" s="24" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="G45" s="36" t="e" vm="11">
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="G45" s="22" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="35"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="G51" s="13" t="s">
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="G51" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
@@ -1735,88 +1735,88 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="14"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="18"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="14"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="18"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="14"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="18"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="14"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="18"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="17"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="21"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" s="11"/>
@@ -1840,76 +1840,76 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65" s="8"/>
-      <c r="E65" s="24" t="s">
+      <c r="E65" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66" s="8"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67" s="8"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B68" s="8"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69" s="8"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70" s="8"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.3">
@@ -1922,76 +1922,76 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" s="8"/>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" s="8"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="8"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="8"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="8"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="8"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.3">
@@ -2008,52 +2008,52 @@
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B82" s="8"/>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B83" s="8"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
       <c r="O83" s="3"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B84" s="8"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
       <c r="O84" s="3"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B85" s="8"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
       <c r="O85" s="3"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B86" s="8"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
       <c r="O86" s="3"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B87" s="8"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
       <c r="O87" s="3"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.3">
@@ -2062,60 +2062,60 @@
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B89" s="8"/>
-      <c r="G89" s="18" t="s">
+      <c r="G89" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
       <c r="O89" s="3"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B90" s="8"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
       <c r="O90" s="3"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B91" s="8"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B92" s="8"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
       <c r="O92" s="3"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B93" s="8"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
       <c r="O93" s="3"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B94" s="8"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
       <c r="O94" s="3"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B95" s="8"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
       <c r="O95" s="3"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.3">
@@ -2123,481 +2123,481 @@
       <c r="O96" s="3"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="14"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="18"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="14"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="18"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B99" s="12"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="14"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="18"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B100" s="12"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="41"/>
-      <c r="L100" s="41"/>
-      <c r="M100" s="41"/>
-      <c r="N100" s="41"/>
-      <c r="O100" s="14"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="18"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B101" s="15"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="17"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="21"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B102" s="40"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="40"/>
-      <c r="L102" s="40"/>
-      <c r="M102" s="40"/>
-      <c r="N102" s="40"/>
-      <c r="O102" s="40"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B103" s="40"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="40"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="40"/>
-      <c r="L103" s="40"/>
-      <c r="M103" s="40"/>
-      <c r="N103" s="40"/>
-      <c r="O103" s="40"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B104" s="42"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="43"/>
-      <c r="M104" s="43"/>
-      <c r="N104" s="43"/>
-      <c r="O104" s="44"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="15"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B105" s="4"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="40"/>
-      <c r="F105" s="40"/>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="40"/>
-      <c r="M105" s="40"/>
-      <c r="N105" s="40"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
       <c r="O105" s="5"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B106" s="8"/>
-      <c r="G106" s="20" t="s">
+      <c r="G106" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="22"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="38"/>
       <c r="O106" s="3"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B107" s="8"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="25"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="31"/>
+      <c r="L107" s="31"/>
+      <c r="M107" s="31"/>
+      <c r="N107" s="40"/>
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B108" s="8"/>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D108" s="21"/>
-      <c r="E108" s="22"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="24"/>
-      <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="25"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="38"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="31"/>
+      <c r="M108" s="31"/>
+      <c r="N108" s="40"/>
       <c r="O108" s="3"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B109" s="8"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="25"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
-      <c r="N109" s="25"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="40"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="31"/>
+      <c r="L109" s="31"/>
+      <c r="M109" s="31"/>
+      <c r="N109" s="40"/>
       <c r="O109" s="3"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B110" s="8"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="25"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
-      <c r="K110" s="24"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="24"/>
-      <c r="N110" s="25"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="40"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="31"/>
+      <c r="L110" s="31"/>
+      <c r="M110" s="31"/>
+      <c r="N110" s="40"/>
       <c r="O110" s="3"/>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B111" s="8"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="25"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
-      <c r="N111" s="25"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="40"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="31"/>
+      <c r="L111" s="31"/>
+      <c r="M111" s="31"/>
+      <c r="N111" s="40"/>
       <c r="O111" s="3"/>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B112" s="8"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="25"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24"/>
-      <c r="K112" s="24"/>
-      <c r="L112" s="24"/>
-      <c r="M112" s="24"/>
-      <c r="N112" s="25"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="40"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="31"/>
+      <c r="M112" s="31"/>
+      <c r="N112" s="40"/>
       <c r="O112" s="3"/>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B113" s="8"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="28"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="25"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="43"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="31"/>
+      <c r="L113" s="31"/>
+      <c r="M113" s="31"/>
+      <c r="N113" s="40"/>
       <c r="O113" s="3"/>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B114" s="8"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
-      <c r="L114" s="24"/>
-      <c r="M114" s="24"/>
-      <c r="N114" s="25"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="31"/>
+      <c r="L114" s="31"/>
+      <c r="M114" s="31"/>
+      <c r="N114" s="40"/>
       <c r="O114" s="3"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B115" s="8"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
-      <c r="L115" s="24"/>
-      <c r="M115" s="24"/>
-      <c r="N115" s="25"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="31"/>
+      <c r="L115" s="31"/>
+      <c r="M115" s="31"/>
+      <c r="N115" s="40"/>
       <c r="O115" s="3"/>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B116" s="8"/>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D116" s="21"/>
-      <c r="E116" s="22"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
-      <c r="L116" s="24"/>
-      <c r="M116" s="24"/>
-      <c r="N116" s="25"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="38"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31"/>
+      <c r="J116" s="31"/>
+      <c r="K116" s="31"/>
+      <c r="L116" s="31"/>
+      <c r="M116" s="31"/>
+      <c r="N116" s="40"/>
       <c r="O116" s="3"/>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B117" s="8"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="25"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="24"/>
-      <c r="L117" s="24"/>
-      <c r="M117" s="24"/>
-      <c r="N117" s="25"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="40"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="31"/>
+      <c r="L117" s="31"/>
+      <c r="M117" s="31"/>
+      <c r="N117" s="40"/>
       <c r="O117" s="3"/>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B118" s="8"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="25"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="24"/>
-      <c r="K118" s="24"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="25"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="40"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="31"/>
+      <c r="K118" s="31"/>
+      <c r="L118" s="31"/>
+      <c r="M118" s="31"/>
+      <c r="N118" s="40"/>
       <c r="O118" s="3"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B119" s="8"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="25"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="24"/>
-      <c r="N119" s="25"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="40"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
+      <c r="L119" s="31"/>
+      <c r="M119" s="31"/>
+      <c r="N119" s="40"/>
       <c r="O119" s="3"/>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B120" s="8"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="25"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="24"/>
-      <c r="N120" s="25"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="40"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="31"/>
+      <c r="K120" s="31"/>
+      <c r="L120" s="31"/>
+      <c r="M120" s="31"/>
+      <c r="N120" s="40"/>
       <c r="O120" s="3"/>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B121" s="8"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="28"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
-      <c r="M121" s="24"/>
-      <c r="N121" s="25"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="43"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="31"/>
+      <c r="L121" s="31"/>
+      <c r="M121" s="31"/>
+      <c r="N121" s="40"/>
       <c r="O121" s="3"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B122" s="8"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="25"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="31"/>
+      <c r="K122" s="31"/>
+      <c r="L122" s="31"/>
+      <c r="M122" s="31"/>
+      <c r="N122" s="40"/>
       <c r="O122" s="3"/>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B123" s="8"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="24"/>
-      <c r="K123" s="24"/>
-      <c r="L123" s="24"/>
-      <c r="M123" s="24"/>
-      <c r="N123" s="25"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="31"/>
+      <c r="L123" s="31"/>
+      <c r="M123" s="31"/>
+      <c r="N123" s="40"/>
       <c r="O123" s="3"/>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B124" s="8"/>
-      <c r="G124" s="23"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="24"/>
-      <c r="N124" s="25"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="31"/>
+      <c r="K124" s="31"/>
+      <c r="L124" s="31"/>
+      <c r="M124" s="31"/>
+      <c r="N124" s="40"/>
       <c r="O124" s="3"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B125" s="8"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="24"/>
-      <c r="K125" s="24"/>
-      <c r="L125" s="24"/>
-      <c r="M125" s="24"/>
-      <c r="N125" s="25"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="31"/>
+      <c r="K125" s="31"/>
+      <c r="L125" s="31"/>
+      <c r="M125" s="31"/>
+      <c r="N125" s="40"/>
       <c r="O125" s="3"/>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B126" s="8"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="24"/>
-      <c r="K126" s="24"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="24"/>
-      <c r="N126" s="25"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
+      <c r="J126" s="31"/>
+      <c r="K126" s="31"/>
+      <c r="L126" s="31"/>
+      <c r="M126" s="31"/>
+      <c r="N126" s="40"/>
       <c r="O126" s="3"/>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B127" s="8"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="24"/>
-      <c r="K127" s="24"/>
-      <c r="L127" s="24"/>
-      <c r="M127" s="24"/>
-      <c r="N127" s="25"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
+      <c r="J127" s="31"/>
+      <c r="K127" s="31"/>
+      <c r="L127" s="31"/>
+      <c r="M127" s="31"/>
+      <c r="N127" s="40"/>
       <c r="O127" s="3"/>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B128" s="8"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="24"/>
-      <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="24"/>
-      <c r="N128" s="25"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="31"/>
+      <c r="K128" s="31"/>
+      <c r="L128" s="31"/>
+      <c r="M128" s="31"/>
+      <c r="N128" s="40"/>
       <c r="O128" s="3"/>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B129" s="8"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="27"/>
-      <c r="L129" s="27"/>
-      <c r="M129" s="27"/>
-      <c r="N129" s="28"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="42"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="42"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="42"/>
+      <c r="M129" s="42"/>
+      <c r="N129" s="43"/>
       <c r="O129" s="3"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.3">
@@ -2609,103 +2609,100 @@
       <c r="O131" s="3"/>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="13"/>
-      <c r="M132" s="13"/>
-      <c r="N132" s="13"/>
-      <c r="O132" s="14"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="18"/>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
-      <c r="M133" s="13"/>
-      <c r="N133" s="13"/>
-      <c r="O133" s="14"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="18"/>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B134" s="12"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
-      <c r="M134" s="13"/>
-      <c r="N134" s="13"/>
-      <c r="O134" s="14"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="18"/>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="13"/>
-      <c r="L135" s="13"/>
-      <c r="M135" s="13"/>
-      <c r="N135" s="13"/>
-      <c r="O135" s="14"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="18"/>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B136" s="15"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
-      <c r="L136" s="16"/>
-      <c r="M136" s="16"/>
-      <c r="N136" s="16"/>
-      <c r="O136" s="17"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="20"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="20"/>
+      <c r="N136" s="20"/>
+      <c r="O136" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B57:O60"/>
-    <mergeCell ref="L32:O38"/>
-    <mergeCell ref="L39:O42"/>
-    <mergeCell ref="B45:E50"/>
-    <mergeCell ref="B51:E54"/>
-    <mergeCell ref="G45:J50"/>
-    <mergeCell ref="G51:J54"/>
-    <mergeCell ref="G5:J12"/>
-    <mergeCell ref="G13:J16"/>
-    <mergeCell ref="L5:O12"/>
-    <mergeCell ref="L13:O16"/>
-    <mergeCell ref="B56:O56"/>
+    <mergeCell ref="B132:O132"/>
+    <mergeCell ref="B133:O136"/>
+    <mergeCell ref="G82:J87"/>
+    <mergeCell ref="G89:J95"/>
+    <mergeCell ref="C108:E113"/>
+    <mergeCell ref="C116:E121"/>
+    <mergeCell ref="G106:N129"/>
+    <mergeCell ref="B97:O97"/>
+    <mergeCell ref="B98:O101"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="E65:L70"/>
@@ -2722,17 +2719,25 @@
     <mergeCell ref="L26:O29"/>
     <mergeCell ref="B5:E12"/>
     <mergeCell ref="B13:E16"/>
-    <mergeCell ref="B132:O132"/>
-    <mergeCell ref="B133:O136"/>
-    <mergeCell ref="G82:J87"/>
-    <mergeCell ref="G89:J95"/>
-    <mergeCell ref="C108:E113"/>
-    <mergeCell ref="C116:E121"/>
-    <mergeCell ref="G106:N129"/>
-    <mergeCell ref="B97:O97"/>
-    <mergeCell ref="B98:O101"/>
+    <mergeCell ref="G5:J12"/>
+    <mergeCell ref="G13:J16"/>
+    <mergeCell ref="L5:O12"/>
+    <mergeCell ref="L13:O16"/>
+    <mergeCell ref="B56:O56"/>
+    <mergeCell ref="B57:O60"/>
+    <mergeCell ref="L32:O38"/>
+    <mergeCell ref="L39:O42"/>
+    <mergeCell ref="B45:E50"/>
+    <mergeCell ref="B51:E54"/>
+    <mergeCell ref="G45:J50"/>
+    <mergeCell ref="G51:J54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="61" max="16383" man="1"/>
+    <brk id="102" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>